--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_17_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_17_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20741.01896045037</v>
+        <v>642.2235627818009</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23711192.68288006</v>
+        <v>23720151.03903472</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3078454.046981256</v>
+        <v>3058246.459900204</v>
       </c>
     </row>
     <row r="11">
@@ -22559,49 +22561,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>413.8325483879333</v>
+        <v>413.934522038312</v>
       </c>
       <c r="H2" t="n">
-        <v>327.6751233740921</v>
+        <v>328.7194610210322</v>
       </c>
       <c r="I2" t="n">
-        <v>165.8152863627317</v>
+        <v>169.7466255189538</v>
       </c>
       <c r="J2" t="n">
-        <v>89.76036546048012</v>
+        <v>98.41525156930325</v>
       </c>
       <c r="K2" t="n">
-        <v>84.55776703287157</v>
+        <v>97.52919776222207</v>
       </c>
       <c r="L2" t="n">
-        <v>68.55874285947689</v>
+        <v>84.65094969160234</v>
       </c>
       <c r="M2" t="n">
-        <v>45.0952138038613</v>
+        <v>63.00089454090767</v>
       </c>
       <c r="N2" t="n">
-        <v>41.28099931752746</v>
+        <v>59.47641268871214</v>
       </c>
       <c r="O2" t="n">
-        <v>52.11368889882766</v>
+        <v>69.29510178405982</v>
       </c>
       <c r="P2" t="n">
-        <v>78.45608620404292</v>
+        <v>93.12002459555268</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.3601098520762</v>
+        <v>117.3721168894014</v>
       </c>
       <c r="R2" t="n">
-        <v>145.9840597439011</v>
+        <v>152.3896620594977</v>
       </c>
       <c r="S2" t="n">
-        <v>182.5711814737726</v>
+        <v>184.8949060317757</v>
       </c>
       <c r="T2" t="n">
-        <v>218.4903622093286</v>
+        <v>218.936751863861</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3959862152726</v>
+        <v>251.4041441073029</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22638,49 +22640,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>135.4762758837533</v>
+        <v>135.5308365967838</v>
       </c>
       <c r="H3" t="n">
-        <v>105.1802814191576</v>
+        <v>105.7072230423724</v>
       </c>
       <c r="I3" t="n">
-        <v>78.20346777140993</v>
+        <v>80.08198354899218</v>
       </c>
       <c r="J3" t="n">
-        <v>71.99338681190339</v>
+        <v>77.14817768641285</v>
       </c>
       <c r="K3" t="n">
-        <v>46.07750428554137</v>
+        <v>54.88786293308858</v>
       </c>
       <c r="L3" t="n">
-        <v>16.33620635813519</v>
+        <v>28.18282082555037</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.82444031476771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.901750057177253</v>
+        <v>21.88313163507588</v>
       </c>
       <c r="P3" t="n">
-        <v>26.18458021020076</v>
+        <v>36.60328338528051</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.6665433882805</v>
+        <v>73.63117054633832</v>
       </c>
       <c r="R3" t="n">
-        <v>108.0796117500979</v>
+        <v>111.4671619854424</v>
       </c>
       <c r="S3" t="n">
-        <v>158.8025487711757</v>
+        <v>159.8159900855784</v>
       </c>
       <c r="T3" t="n">
-        <v>196.1780027799153</v>
+        <v>196.3979207416475</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6247840666579</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -22717,49 +22719,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.431057567854</v>
+        <v>167.4767994368456</v>
       </c>
       <c r="H4" t="n">
-        <v>157.5573113517852</v>
+        <v>157.9639981506375</v>
       </c>
       <c r="I4" t="n">
-        <v>139.9692581943449</v>
+        <v>141.344840945473</v>
       </c>
       <c r="J4" t="n">
-        <v>91.40236859204865</v>
+        <v>94.63631872975202</v>
       </c>
       <c r="K4" t="n">
-        <v>72.51491935620855</v>
+        <v>77.82929286268265</v>
       </c>
       <c r="L4" t="n">
-        <v>63.34145120781625</v>
+        <v>70.14201962134344</v>
       </c>
       <c r="M4" t="n">
-        <v>63.5757640821251</v>
+        <v>70.74600996413862</v>
       </c>
       <c r="N4" t="n">
-        <v>54.32560202794129</v>
+        <v>61.32535548916809</v>
       </c>
       <c r="O4" t="n">
-        <v>70.18380116939908</v>
+        <v>76.6492064337699</v>
       </c>
       <c r="P4" t="n">
-        <v>78.82751991675428</v>
+        <v>84.35979105369728</v>
       </c>
       <c r="Q4" t="n">
-        <v>109.3216277003259</v>
+        <v>113.1518854756102</v>
       </c>
       <c r="R4" t="n">
-        <v>152.7739102360676</v>
+        <v>154.8306309999973</v>
       </c>
       <c r="S4" t="n">
-        <v>214.366455857413</v>
+        <v>215.1636118833841</v>
       </c>
       <c r="T4" t="n">
-        <v>226.3732865346039</v>
+        <v>226.5687290657497</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0297546005226</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -22796,49 +22798,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>413.7626217824606</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H5" t="n">
-        <v>326.9589875257946</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I5" t="n">
-        <v>163.1194409052448</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J5" t="n">
-        <v>83.82543222923999</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K5" t="n">
-        <v>75.6628405919713</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L5" t="n">
-        <v>57.5238000663409</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M5" t="n">
-        <v>32.81671374064987</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N5" t="n">
-        <v>28.8038202865167</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O5" t="n">
-        <v>40.33184255098621</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P5" t="n">
-        <v>68.40055292880922</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.80882313533421</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R5" t="n">
-        <v>141.5915326128755</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S5" t="n">
-        <v>180.9777289515631</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T5" t="n">
-        <v>218.1842584938718</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -22875,22 +22877,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H6" t="n">
-        <v>104.8189406330145</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I6" t="n">
-        <v>76.91530920137211</v>
+        <v>78.20346777140993</v>
       </c>
       <c r="J6" t="n">
-        <v>68.45858123773974</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K6" t="n">
-        <v>40.03595854374745</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L6" t="n">
-        <v>8.212602535240634</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22899,25 +22901,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P6" t="n">
-        <v>19.04014099716808</v>
+        <v>26.18458021020076</v>
       </c>
       <c r="Q6" t="n">
-        <v>61.89067497778616</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R6" t="n">
-        <v>105.7566598115685</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S6" t="n">
-        <v>158.1075995298878</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T6" t="n">
-        <v>196.0271979740726</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -22954,49 +22956,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3996908999483</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H7" t="n">
-        <v>157.278433158951</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I7" t="n">
-        <v>139.0259769449628</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J7" t="n">
-        <v>89.18474517111618</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K7" t="n">
-        <v>68.87068284861988</v>
+        <v>72.51491935620855</v>
       </c>
       <c r="L7" t="n">
-        <v>58.678083144819</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M7" t="n">
-        <v>58.65889631214456</v>
+        <v>63.5757640821251</v>
       </c>
       <c r="N7" t="n">
-        <v>49.52564638379106</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O7" t="n">
-        <v>65.75026523669263</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P7" t="n">
-        <v>75.03386400932396</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q7" t="n">
-        <v>106.6950969905138</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R7" t="n">
-        <v>151.3635507864171</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S7" t="n">
-        <v>213.8198203812747</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T7" t="n">
-        <v>226.2392653171887</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U7" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -23033,49 +23035,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>413.6919290911495</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H8" t="n">
-        <v>326.2350060009042</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I8" t="n">
-        <v>160.3940609234714</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J8" t="n">
-        <v>77.82547842006969</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K8" t="n">
-        <v>66.6704651595997</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L8" t="n">
-        <v>46.36796318225549</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M8" t="n">
-        <v>20.40369570745969</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N8" t="n">
-        <v>16.18994664413864</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O8" t="n">
-        <v>28.4209193578335</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P8" t="n">
-        <v>58.23485555240069</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q8" t="n">
-        <v>91.1748077665065</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R8" t="n">
-        <v>137.150882842301</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S8" t="n">
-        <v>179.3668192483101</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8748012376572</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3847366715299</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23112,22 +23114,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4010379269883</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H9" t="n">
-        <v>104.4536411525054</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I9" t="n">
-        <v>75.61303811963009</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J9" t="n">
-        <v>64.88504985279644</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K9" t="n">
-        <v>33.92822422317469</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23136,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P9" t="n">
-        <v>11.81743037845671</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.06248420542693</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R9" t="n">
-        <v>103.4082586098946</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S9" t="n">
-        <v>157.4050367233684</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T9" t="n">
-        <v>195.8747410155859</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6162446804871</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -23191,49 +23193,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3679805923089</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H10" t="n">
-        <v>156.9964996964846</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I10" t="n">
-        <v>138.0723615115898</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J10" t="n">
-        <v>86.94282642101277</v>
+        <v>91.40236859204865</v>
       </c>
       <c r="K10" t="n">
-        <v>65.18652165197315</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L10" t="n">
-        <v>53.96362522541675</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M10" t="n">
-        <v>53.68816145191141</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N10" t="n">
-        <v>44.67310448839555</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O10" t="n">
-        <v>61.26815738962975</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P10" t="n">
-        <v>71.19864643810425</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.0397911390026</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R10" t="n">
-        <v>149.9377400447414</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S10" t="n">
-        <v>213.2671962017777</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1037758209114</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0238190271842</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -23270,49 +23272,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I11" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J11" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K11" t="n">
-        <v>55.12872290169071</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L11" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M11" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285175</v>
       </c>
       <c r="P11" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R11" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S11" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U11" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23349,19 +23351,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H12" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I12" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J12" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K12" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R12" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T12" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23428,49 +23430,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H13" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I13" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J13" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K13" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L13" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M13" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N13" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O13" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P13" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833918</v>
       </c>
       <c r="Q13" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R13" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S13" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T13" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23507,49 +23509,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I14" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J14" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K14" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L14" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M14" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P14" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R14" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S14" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U14" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23586,19 +23588,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H15" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I15" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J15" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K15" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R15" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T15" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23665,49 +23667,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H16" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I16" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J16" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K16" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L16" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M16" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N16" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O16" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P16" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R16" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S16" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T16" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23744,49 +23746,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I17" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J17" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K17" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L17" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M17" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285175</v>
       </c>
       <c r="P17" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R17" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S17" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U17" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23823,19 +23825,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H18" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I18" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J18" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K18" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319982</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R18" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T18" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23902,49 +23904,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H19" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I19" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J19" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K19" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L19" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M19" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N19" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O19" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P19" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833918</v>
       </c>
       <c r="Q19" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R19" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S19" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T19" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23981,49 +23983,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I20" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J20" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K20" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L20" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M20" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P20" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R20" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S20" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U20" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24060,19 +24062,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H21" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I21" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J21" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K21" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R21" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T21" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24139,49 +24141,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H22" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I22" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J22" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K22" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L22" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M22" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N22" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O22" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P22" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R22" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S22" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T22" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24218,49 +24220,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I23" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J23" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K23" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L23" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M23" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P23" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R23" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S23" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U23" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24297,19 +24299,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H24" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I24" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J24" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K24" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R24" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T24" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24376,49 +24378,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H25" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I25" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J25" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K25" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L25" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M25" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N25" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O25" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P25" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R25" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S25" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T25" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24455,49 +24457,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I26" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J26" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K26" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L26" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M26" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P26" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q26" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R26" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S26" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U26" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24534,19 +24536,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H27" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I27" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J27" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K27" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R27" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T27" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24613,49 +24615,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H28" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I28" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J28" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K28" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L28" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M28" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N28" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O28" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P28" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q28" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R28" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S28" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T28" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24692,49 +24694,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H29" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I29" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J29" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K29" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M29" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P29" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q29" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R29" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S29" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U29" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24771,19 +24773,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H30" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I30" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J30" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K30" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R30" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T30" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24850,49 +24852,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H31" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I31" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J31" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K31" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L31" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M31" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N31" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O31" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P31" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R31" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S31" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T31" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24929,49 +24931,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I32" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J32" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K32" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L32" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M32" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P32" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q32" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R32" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S32" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U32" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25008,19 +25010,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H33" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I33" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J33" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K33" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R33" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T33" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25087,49 +25089,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H34" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I34" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J34" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K34" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L34" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M34" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N34" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O34" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P34" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R34" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S34" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T34" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25166,49 +25168,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I35" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J35" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K35" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L35" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M35" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P35" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q35" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R35" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S35" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U35" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25245,19 +25247,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H36" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I36" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J36" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K36" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R36" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T36" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25324,49 +25326,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H37" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I37" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J37" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K37" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L37" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M37" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N37" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O37" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P37" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q37" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R37" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S37" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T37" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25403,49 +25405,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I38" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J38" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K38" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L38" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M38" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P38" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q38" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R38" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S38" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U38" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25482,19 +25484,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H39" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I39" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J39" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K39" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R39" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T39" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25561,49 +25563,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H40" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I40" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J40" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K40" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L40" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M40" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N40" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O40" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P40" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q40" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R40" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S40" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T40" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25640,49 +25642,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I41" t="n">
-        <v>156.8960271123767</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J41" t="n">
-        <v>70.12451876312399</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K41" t="n">
-        <v>55.12872290169068</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.04941132065568</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M41" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.13321183460977</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P41" t="n">
-        <v>45.18715087494314</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q41" t="n">
-        <v>81.37652493873003</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R41" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8516372905796</v>
       </c>
       <c r="S41" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U41" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25719,19 +25721,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H42" t="n">
-        <v>103.9847781159594</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I42" t="n">
-        <v>73.94156907472269</v>
+        <v>73.47245129300644</v>
       </c>
       <c r="J42" t="n">
-        <v>60.29841103797475</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K42" t="n">
-        <v>26.08892793956251</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.86548610568364</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R42" t="n">
-        <v>100.3940782532438</v>
+        <v>99.54811248025331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T42" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25798,49 +25800,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.327280312339</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H43" t="n">
-        <v>156.634637207297</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I43" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J43" t="n">
-        <v>84.06531662713587</v>
+        <v>83.25770908245346</v>
       </c>
       <c r="K43" t="n">
-        <v>60.45788912455299</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L43" t="n">
-        <v>47.91260360151773</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M43" t="n">
-        <v>47.308207565346</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N43" t="n">
-        <v>38.44485164535457</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O43" t="n">
-        <v>55.51535781714706</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P43" t="n">
-        <v>66.27613257700894</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q43" t="n">
-        <v>100.6316976953354</v>
+        <v>99.67517550244999</v>
       </c>
       <c r="R43" t="n">
-        <v>148.1077074562735</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S43" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T43" t="n">
-        <v>225.929874624676</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25877,49 +25879,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3057734279745</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I44" t="n">
-        <v>156.8960271123767</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J44" t="n">
-        <v>70.12451876312399</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K44" t="n">
-        <v>55.12872290169068</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L44" t="n">
-        <v>32.04941132065568</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M44" t="n">
-        <v>4.471547871848941</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.13321183460977</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>45.18715087494314</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q44" t="n">
-        <v>81.37652493873003</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R44" t="n">
-        <v>131.4512948418814</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S44" t="n">
-        <v>177.2992115582687</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4776118722965</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U44" t="n">
-        <v>251.377477928131</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,19 +25958,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H45" t="n">
-        <v>103.9847781159594</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I45" t="n">
-        <v>73.94156907472269</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J45" t="n">
-        <v>60.29841103797475</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K45" t="n">
-        <v>26.08892793956251</v>
+        <v>19.35442320295975</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.86548610568364</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R45" t="n">
-        <v>100.3940782532438</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5032951430903</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T45" t="n">
-        <v>195.6790620280356</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.327280312339</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H46" t="n">
-        <v>156.634637207297</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I46" t="n">
-        <v>136.8483930921292</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J46" t="n">
-        <v>84.06531662713587</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K46" t="n">
-        <v>60.45788912455299</v>
+        <v>56.39566249074963</v>
       </c>
       <c r="L46" t="n">
-        <v>47.91260360151773</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M46" t="n">
-        <v>47.308207565346</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N46" t="n">
-        <v>38.44485164535457</v>
+        <v>33.09434609552578</v>
       </c>
       <c r="O46" t="n">
-        <v>55.51535781714706</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P46" t="n">
-        <v>66.27613257700894</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q46" t="n">
-        <v>100.6316976953354</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R46" t="n">
-        <v>148.1077074562735</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S46" t="n">
-        <v>212.5579013226647</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T46" t="n">
-        <v>225.929874624676</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>228267.5966486339</v>
+        <v>206295.1607907402</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>242741.9306427199</v>
+        <v>228267.5966486339</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>256812.0246358862</v>
+        <v>228267.5966486339</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>274211.8067315854</v>
+        <v>278558.3380753195</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>274211.8067315854</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>38461.80963895158</v>
+      </c>
+      <c r="C2" t="n">
         <v>42558.36547686397</v>
       </c>
-      <c r="C2" t="n">
-        <v>45256.9701198292</v>
-      </c>
       <c r="D2" t="n">
-        <v>47880.20798296186</v>
+        <v>42558.36547686396</v>
       </c>
       <c r="E2" t="n">
-        <v>51124.23515334644</v>
+        <v>51934.60540387311</v>
       </c>
       <c r="F2" t="n">
-        <v>51124.23515334644</v>
+        <v>51934.60540387311</v>
       </c>
       <c r="G2" t="n">
-        <v>51124.23515334645</v>
+        <v>51934.60540387311</v>
       </c>
       <c r="H2" t="n">
-        <v>51124.23515334645</v>
+        <v>51934.60540387311</v>
       </c>
       <c r="I2" t="n">
-        <v>51124.23515334645</v>
+        <v>51934.60540387312</v>
       </c>
       <c r="J2" t="n">
-        <v>51124.23515334645</v>
+        <v>51934.60540387312</v>
       </c>
       <c r="K2" t="n">
-        <v>51124.23515334645</v>
+        <v>51934.60540387312</v>
       </c>
       <c r="L2" t="n">
-        <v>51124.23515334645</v>
+        <v>51934.60540387311</v>
       </c>
       <c r="M2" t="n">
-        <v>51124.23515334645</v>
+        <v>51934.60540387311</v>
       </c>
       <c r="N2" t="n">
-        <v>51124.23515334645</v>
+        <v>51934.60540387312</v>
       </c>
       <c r="O2" t="n">
-        <v>51124.23515334645</v>
+        <v>51934.60540387312</v>
       </c>
       <c r="P2" t="n">
-        <v>51124.23515334645</v>
+        <v>53341.74620751401</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245024.1243283586</v>
+        <v>220581.1694567361</v>
       </c>
       <c r="C3" t="n">
-        <v>15839.2325656712</v>
+        <v>23098.28073304243</v>
       </c>
       <c r="D3" t="n">
-        <v>15059.8748709676</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18132.93044319592</v>
+        <v>51324.42804721942</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8688.935337042501</v>
       </c>
     </row>
     <row r="4">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>38617.84971036801</v>
+      </c>
+      <c r="C5" t="n">
         <v>39170.82732295871</v>
       </c>
-      <c r="C5" t="n">
-        <v>39550.0218227859</v>
-      </c>
       <c r="D5" t="n">
-        <v>39933.37061459347</v>
+        <v>39170.82732295871</v>
       </c>
       <c r="E5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="F5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="G5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="H5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="I5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="J5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="K5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="L5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="M5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="N5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="O5" t="n">
-        <v>6797.799999175896</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="P5" t="n">
-        <v>6797.799999175896</v>
+        <v>7220.487712605606</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-241636.5861744533</v>
+        <v>-220737.2095281525</v>
       </c>
       <c r="C6" t="n">
-        <v>-10132.2842686279</v>
+        <v>-19710.74257913717</v>
       </c>
       <c r="D6" t="n">
-        <v>-7113.037502599211</v>
+        <v>3387.538153905247</v>
       </c>
       <c r="E6" t="n">
-        <v>26193.50471097463</v>
+        <v>-6325.71657500499</v>
       </c>
       <c r="F6" t="n">
-        <v>44326.43515417054</v>
+        <v>44998.71147221442</v>
       </c>
       <c r="G6" t="n">
-        <v>44326.43515417055</v>
+        <v>44998.71147221442</v>
       </c>
       <c r="H6" t="n">
-        <v>44326.43515417055</v>
+        <v>44998.71147221442</v>
       </c>
       <c r="I6" t="n">
-        <v>44326.43515417055</v>
+        <v>44998.71147221443</v>
       </c>
       <c r="J6" t="n">
-        <v>44326.43515417055</v>
+        <v>44998.71147221443</v>
       </c>
       <c r="K6" t="n">
-        <v>44326.43515417055</v>
+        <v>44998.71147221443</v>
       </c>
       <c r="L6" t="n">
-        <v>44326.43515417055</v>
+        <v>44998.71147221442</v>
       </c>
       <c r="M6" t="n">
-        <v>44326.43515417055</v>
+        <v>44998.71147221442</v>
       </c>
       <c r="N6" t="n">
-        <v>44326.43515417055</v>
+        <v>44998.71147221443</v>
       </c>
       <c r="O6" t="n">
-        <v>44326.43515417055</v>
+        <v>44998.71147221443</v>
       </c>
       <c r="P6" t="n">
-        <v>44326.43515417055</v>
+        <v>37432.3231578659</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>228.9105371728443</v>
+      </c>
+      <c r="C3" t="n">
         <v>254.2764827045282</v>
       </c>
-      <c r="C3" t="n">
-        <v>271.6707258158669</v>
-      </c>
       <c r="D3" t="n">
-        <v>289.2555327795172</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="E3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="F3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="G3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="H3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="I3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="J3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="K3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="L3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="M3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="N3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="O3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="P3" t="n">
-        <v>311.8256880355916</v>
+        <v>331.2150326883306</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254.2764827045282</v>
+        <v>228.9105371728443</v>
       </c>
       <c r="C3" t="n">
-        <v>17.39424311133865</v>
+        <v>25.36594553168391</v>
       </c>
       <c r="D3" t="n">
-        <v>17.58480696365029</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.57015525607437</v>
+        <v>63.88378938990695</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>13.05476059389537</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0222170158976</v>
+        <v>0.9202433655189716</v>
       </c>
       <c r="H2" t="n">
-        <v>10.4687800140613</v>
+        <v>9.42444236712117</v>
       </c>
       <c r="I2" t="n">
-        <v>39.40902150539227</v>
+        <v>35.47768234917019</v>
       </c>
       <c r="J2" t="n">
-        <v>86.75939145303902</v>
+        <v>78.10450534421588</v>
       </c>
       <c r="K2" t="n">
-        <v>130.0298377359845</v>
+        <v>117.058407006634</v>
       </c>
       <c r="L2" t="n">
-        <v>161.3135117362607</v>
+        <v>145.2213049041352</v>
       </c>
       <c r="M2" t="n">
-        <v>179.4923635927296</v>
+        <v>161.5866828556833</v>
       </c>
       <c r="N2" t="n">
-        <v>182.3967376891487</v>
+        <v>164.201324317964</v>
       </c>
       <c r="O2" t="n">
-        <v>172.2320672373169</v>
+        <v>155.0506543520847</v>
       </c>
       <c r="P2" t="n">
-        <v>146.9960846573449</v>
+        <v>132.3321462658351</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.387937775512</v>
+        <v>99.3759307381869</v>
       </c>
       <c r="R2" t="n">
-        <v>64.21183962487768</v>
+        <v>57.80623730928114</v>
       </c>
       <c r="S2" t="n">
-        <v>23.29377024976659</v>
+        <v>20.97004569176358</v>
       </c>
       <c r="T2" t="n">
-        <v>4.474754987091746</v>
+        <v>4.0283653325593</v>
       </c>
       <c r="U2" t="n">
-        <v>0.081777361271808</v>
+        <v>0.0736194692415177</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.4923736082585709</v>
       </c>
       <c r="H3" t="n">
-        <v>5.282234102975201</v>
+        <v>4.755292479760408</v>
       </c>
       <c r="I3" t="n">
-        <v>18.83085272859006</v>
+        <v>16.95233695100782</v>
       </c>
       <c r="J3" t="n">
-        <v>51.67329918809664</v>
+        <v>46.51850831358718</v>
       </c>
       <c r="K3" t="n">
-        <v>88.31789871445865</v>
+        <v>79.50754006691143</v>
       </c>
       <c r="L3" t="n">
-        <v>118.7543139272422</v>
+        <v>106.907699459827</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>124.7562427592001</v>
       </c>
       <c r="N3" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>130.1295882761561</v>
+        <v>117.1482066982574</v>
       </c>
       <c r="P3" t="n">
-        <v>104.4404670187712</v>
+        <v>94.02176384369149</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.81568634559048</v>
+        <v>62.85105918753266</v>
       </c>
       <c r="R3" t="n">
-        <v>33.95790461476701</v>
+        <v>30.57035437942251</v>
       </c>
       <c r="S3" t="n">
-        <v>10.15906513446865</v>
+        <v>9.145623820065993</v>
       </c>
       <c r="T3" t="n">
-        <v>2.204529128353409</v>
+        <v>1.984611166621169</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03239300054332704</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4585313622540672</v>
+        <v>0.4127894932625061</v>
       </c>
       <c r="H4" t="n">
-        <v>4.076760657131619</v>
+        <v>3.670073858279375</v>
       </c>
       <c r="I4" t="n">
-        <v>13.78928860305868</v>
+        <v>12.41370585193064</v>
       </c>
       <c r="J4" t="n">
-        <v>32.41816731136255</v>
+        <v>29.18421717365919</v>
       </c>
       <c r="K4" t="n">
-        <v>53.27300736006343</v>
+        <v>47.95863385358934</v>
       </c>
       <c r="L4" t="n">
-        <v>68.17110816639106</v>
+        <v>61.37053975286388</v>
       </c>
       <c r="M4" t="n">
-        <v>71.87687526678981</v>
+        <v>64.70662938477629</v>
       </c>
       <c r="N4" t="n">
-        <v>70.16780382566108</v>
+        <v>63.16805036443428</v>
       </c>
       <c r="O4" t="n">
-        <v>64.81132382114764</v>
+        <v>58.3459185567768</v>
       </c>
       <c r="P4" t="n">
-        <v>55.45728403116462</v>
+        <v>49.92501289422163</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.39574888838376</v>
+        <v>34.5654911130995</v>
       </c>
       <c r="R4" t="n">
-        <v>20.61723743371469</v>
+        <v>18.56051666978504</v>
       </c>
       <c r="S4" t="n">
-        <v>7.990951104009515</v>
+        <v>7.1937950780384</v>
       </c>
       <c r="T4" t="n">
-        <v>1.959179456903741</v>
+        <v>1.76373692575798</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0250108015774946</v>
+        <v>0.02251579054159127</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.092143621370318</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H5" t="n">
-        <v>11.18491586235878</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I5" t="n">
-        <v>42.10486696287924</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J5" t="n">
-        <v>92.69432468427914</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K5" t="n">
-        <v>138.9247641768847</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L5" t="n">
-        <v>172.3484545293967</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M5" t="n">
-        <v>191.770863655941</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N5" t="n">
-        <v>194.8739167201595</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O5" t="n">
-        <v>184.0139135851583</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P5" t="n">
-        <v>157.0516179325786</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q5" t="n">
-        <v>117.939224492254</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R5" t="n">
-        <v>68.60436675590331</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S5" t="n">
-        <v>24.88722277197616</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T5" t="n">
-        <v>4.780858702548571</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08737148970962544</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H6" t="n">
-        <v>5.643574889118293</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I6" t="n">
-        <v>20.11901129862788</v>
+        <v>18.83085272859006</v>
       </c>
       <c r="J6" t="n">
-        <v>55.20810476226028</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K6" t="n">
-        <v>94.35944445625256</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L6" t="n">
-        <v>126.8779177501367</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M6" t="n">
         <v>138.5806830739679</v>
@@ -31379,25 +31381,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P6" t="n">
-        <v>111.5849062318039</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q6" t="n">
-        <v>74.59155475608482</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R6" t="n">
-        <v>36.28085655329635</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S6" t="n">
-        <v>10.85401437575656</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T6" t="n">
-        <v>2.355333934196052</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.4585313622540672</v>
       </c>
       <c r="H7" t="n">
-        <v>4.355638849965868</v>
+        <v>4.076760657131619</v>
       </c>
       <c r="I7" t="n">
-        <v>14.73256985244078</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J7" t="n">
-        <v>34.63579073229502</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K7" t="n">
-        <v>56.9172438676521</v>
+        <v>53.27300736006343</v>
       </c>
       <c r="L7" t="n">
-        <v>72.83447622938832</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M7" t="n">
-        <v>76.79374303677035</v>
+        <v>71.87687526678981</v>
       </c>
       <c r="N7" t="n">
-        <v>74.96775946981131</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O7" t="n">
-        <v>69.24485975385409</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P7" t="n">
-        <v>59.25093993859494</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.02227959819589</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0275968833652</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S7" t="n">
-        <v>8.537586580147812</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T7" t="n">
-        <v>2.093200674318973</v>
+        <v>1.959179456903741</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.0250108015774946</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.162836312681475</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H8" t="n">
-        <v>11.90889738724916</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I8" t="n">
-        <v>44.83024694465261</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J8" t="n">
-        <v>98.69427849344945</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K8" t="n">
-        <v>147.9171396092563</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L8" t="n">
-        <v>183.5042914134821</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M8" t="n">
-        <v>204.1838816891312</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N8" t="n">
-        <v>207.4877903625375</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O8" t="n">
-        <v>195.9248367783111</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P8" t="n">
-        <v>167.2173153089871</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q8" t="n">
-        <v>125.5732398610817</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R8" t="n">
-        <v>73.04501652647778</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S8" t="n">
-        <v>26.49813247522914</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T8" t="n">
-        <v>5.09031595876316</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U8" t="n">
-        <v>0.093026905014518</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6221722780540558</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H9" t="n">
-        <v>6.00887436962733</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I9" t="n">
-        <v>21.42128238036991</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J9" t="n">
-        <v>58.78163614720359</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K9" t="n">
-        <v>100.4671787768253</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M9" t="n">
         <v>138.5806830739679</v>
@@ -31616,25 +31618,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P9" t="n">
-        <v>118.8076168505153</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.41974552844405</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R9" t="n">
-        <v>38.62925775497025</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S9" t="n">
-        <v>11.55657718227599</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T9" t="n">
-        <v>2.507790892682794</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04093238671408263</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5216083377991293</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H10" t="n">
-        <v>4.637572312432262</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I10" t="n">
-        <v>15.68618528581382</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J10" t="n">
-        <v>36.87770948239844</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K10" t="n">
-        <v>60.60140506429882</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L10" t="n">
-        <v>77.54893414879056</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M10" t="n">
-        <v>81.7644778970035</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N10" t="n">
-        <v>79.82030136520682</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O10" t="n">
-        <v>73.72696760091696</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P10" t="n">
-        <v>63.08615750981466</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.6775854497071</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R10" t="n">
-        <v>23.45340762504085</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S10" t="n">
-        <v>9.090210759644821</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T10" t="n">
-        <v>2.228690170596279</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02845136387995254</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H11" t="n">
-        <v>12.83812996017889</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I11" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J11" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K11" t="n">
-        <v>159.4588818671653</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L11" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M11" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N11" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P11" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R11" t="n">
-        <v>78.74460452689742</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S11" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T11" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6707194044539139</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H12" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961758</v>
       </c>
       <c r="I12" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J12" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K12" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L12" t="n">
         <v>135.0905202853774</v>
@@ -31856,22 +31858,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R12" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S12" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377294</v>
       </c>
       <c r="T12" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030797</v>
       </c>
       <c r="H13" t="n">
-        <v>4.999434801619816</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I13" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J13" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K13" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L13" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M13" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N13" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O13" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P13" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957972</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S13" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T13" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03067137915104183</v>
+        <v>0.0312944529928953</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H14" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I14" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J14" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K14" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L14" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M14" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N14" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O14" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P14" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R14" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S14" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T14" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H15" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I15" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J15" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K15" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L15" t="n">
         <v>135.0905202853774</v>
@@ -32093,22 +32095,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R15" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S15" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T15" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H16" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I16" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J16" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K16" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L16" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M16" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N16" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O16" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P16" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S16" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T16" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H17" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I17" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J17" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K17" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L17" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M17" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N17" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O17" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P17" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R17" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S17" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T17" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H18" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961758</v>
       </c>
       <c r="I18" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J18" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K18" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L18" t="n">
         <v>135.0905202853774</v>
@@ -32330,22 +32332,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R18" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S18" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377294</v>
       </c>
       <c r="T18" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030797</v>
       </c>
       <c r="H19" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I19" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J19" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K19" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L19" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M19" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N19" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O19" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P19" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957972</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R19" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S19" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T19" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.0312944529928953</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H20" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I20" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J20" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K20" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L20" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M20" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N20" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O20" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P20" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R20" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S20" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T20" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H21" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I21" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J21" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K21" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L21" t="n">
         <v>135.0905202853774</v>
@@ -32567,22 +32569,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R21" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S21" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T21" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H22" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I22" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J22" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K22" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L22" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M22" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N22" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O22" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P22" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R22" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S22" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T22" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H23" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I23" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J23" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K23" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L23" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M23" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N23" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O23" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P23" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R23" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S23" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T23" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H24" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I24" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J24" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K24" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L24" t="n">
         <v>135.0905202853774</v>
@@ -32804,22 +32806,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R24" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S24" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T24" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H25" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I25" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J25" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K25" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L25" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M25" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N25" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O25" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P25" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R25" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S25" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T25" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H26" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I26" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J26" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K26" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L26" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M26" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N26" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O26" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P26" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R26" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S26" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T26" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H27" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I27" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J27" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K27" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L27" t="n">
         <v>135.0905202853774</v>
@@ -33041,22 +33043,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R27" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S27" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T27" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H28" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I28" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J28" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K28" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L28" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M28" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N28" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O28" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P28" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R28" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S28" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T28" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H29" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I29" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J29" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K29" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L29" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M29" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N29" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O29" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P29" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R29" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S29" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T29" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H30" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I30" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J30" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K30" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L30" t="n">
         <v>135.0905202853774</v>
@@ -33278,22 +33280,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R30" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S30" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T30" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H31" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I31" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J31" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K31" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L31" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M31" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N31" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O31" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P31" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R31" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S31" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T31" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H32" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I32" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K32" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L32" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M32" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N32" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O32" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P32" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R32" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S32" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T32" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H33" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I33" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J33" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K33" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L33" t="n">
         <v>135.0905202853774</v>
@@ -33515,22 +33517,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R33" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S33" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T33" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H34" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I34" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J34" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K34" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L34" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M34" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N34" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O34" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P34" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R34" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S34" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T34" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H35" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I35" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J35" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K35" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L35" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M35" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N35" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O35" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P35" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R35" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S35" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T35" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H36" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I36" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J36" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K36" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L36" t="n">
         <v>135.0905202853774</v>
@@ -33752,22 +33754,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R36" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S36" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T36" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H37" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I37" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J37" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K37" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L37" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M37" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N37" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O37" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P37" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R37" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S37" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T37" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H38" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I38" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J38" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K38" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L38" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M38" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N38" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O38" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P38" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R38" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S38" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T38" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H39" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I39" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J39" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K39" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L39" t="n">
         <v>135.0905202853774</v>
@@ -33989,22 +33991,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R39" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S39" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T39" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H40" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I40" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J40" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K40" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L40" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M40" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N40" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O40" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P40" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R40" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S40" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T40" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.253570605168206</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H41" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I41" t="n">
-        <v>48.32828075574732</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J41" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K41" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L41" t="n">
-        <v>197.8228432750819</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M41" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N41" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O41" t="n">
-        <v>211.2125443015348</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P41" t="n">
-        <v>180.2650199864447</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.3715226888582</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R41" t="n">
-        <v>78.7446045268974</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S41" t="n">
-        <v>28.56574016527053</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T41" t="n">
-        <v>5.487505324123826</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H42" t="n">
-        <v>6.477737406173327</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I42" t="n">
-        <v>23.0927514252773</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J42" t="n">
-        <v>63.36827496202527</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K42" t="n">
-        <v>108.3064750604375</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L42" t="n">
         <v>135.0905202853774</v>
@@ -34226,22 +34228,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.61674362818734</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R42" t="n">
-        <v>41.64343811162109</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S42" t="n">
-        <v>12.45831876255405</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T42" t="n">
-        <v>2.703469880233099</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H43" t="n">
-        <v>4.999434801619815</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I43" t="n">
-        <v>16.91015370527438</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J43" t="n">
-        <v>39.75521927627533</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K43" t="n">
-        <v>65.33003759171899</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L43" t="n">
-        <v>83.59995577268958</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M43" t="n">
-        <v>88.14443178356892</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N43" t="n">
-        <v>86.04855420824779</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O43" t="n">
-        <v>79.47976717339965</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P43" t="n">
-        <v>68.00867137090997</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.08567889337432</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R43" t="n">
-        <v>25.28344021350878</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S43" t="n">
-        <v>9.799505638757848</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T43" t="n">
-        <v>2.402591366831606</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.253570605168206</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H44" t="n">
-        <v>12.8381299601789</v>
+        <v>13.63640584329393</v>
       </c>
       <c r="I44" t="n">
-        <v>48.32828075574732</v>
+        <v>51.33333687524369</v>
       </c>
       <c r="J44" t="n">
-        <v>106.3952381503951</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K44" t="n">
-        <v>159.4588818671654</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L44" t="n">
-        <v>197.8228432750819</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M44" t="n">
-        <v>220.116029524742</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N44" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>211.2125443015348</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P44" t="n">
-        <v>180.2650199864447</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.3715226888582</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R44" t="n">
-        <v>78.7446045268974</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S44" t="n">
-        <v>28.56574016527053</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T44" t="n">
-        <v>5.487505324123826</v>
+        <v>5.828718816454942</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.670719404453914</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H45" t="n">
-        <v>6.477737406173327</v>
+        <v>6.880523603582114</v>
       </c>
       <c r="I45" t="n">
-        <v>23.0927514252773</v>
+        <v>24.52866043965468</v>
       </c>
       <c r="J45" t="n">
-        <v>63.36827496202527</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K45" t="n">
-        <v>108.3064750604375</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L45" t="n">
         <v>135.0905202853774</v>
@@ -34463,22 +34465,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.61674362818734</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R45" t="n">
-        <v>41.64343811162109</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S45" t="n">
-        <v>12.45831876255405</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T45" t="n">
-        <v>2.703469880233099</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.0468700517955185</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.597273009765842</v>
       </c>
       <c r="H46" t="n">
-        <v>4.999434801619815</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I46" t="n">
-        <v>16.91015370527438</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J46" t="n">
-        <v>39.75521927627533</v>
+        <v>42.22720179044503</v>
       </c>
       <c r="K46" t="n">
-        <v>65.33003759171899</v>
+        <v>69.39226422552235</v>
       </c>
       <c r="L46" t="n">
-        <v>83.59995577268958</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M46" t="n">
-        <v>88.14443178356892</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N46" t="n">
-        <v>86.04855420824779</v>
+        <v>91.39905975807659</v>
       </c>
       <c r="O46" t="n">
-        <v>79.47976717339965</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P46" t="n">
-        <v>68.00867137090997</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.08567889337432</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R46" t="n">
-        <v>25.28344021350878</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S46" t="n">
-        <v>9.799505638757848</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T46" t="n">
-        <v>2.402591366831606</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_17_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_17_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>642.2235627818009</v>
+        <v>-132103.7233707722</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23720151.03903472</v>
+        <v>23391410.84354826</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3058246.459900204</v>
+        <v>3225748.299447253</v>
       </c>
     </row>
     <row r="11">
@@ -22561,49 +22561,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>413.934522038312</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H2" t="n">
-        <v>328.7194610210322</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I2" t="n">
-        <v>169.7466255189538</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J2" t="n">
-        <v>98.41525156930325</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K2" t="n">
-        <v>97.52919776222207</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L2" t="n">
-        <v>84.65094969160234</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M2" t="n">
-        <v>63.00089454090767</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N2" t="n">
-        <v>59.47641268871214</v>
+        <v>28.8038202865167</v>
       </c>
       <c r="O2" t="n">
-        <v>69.29510178405982</v>
+        <v>40.33184255098621</v>
       </c>
       <c r="P2" t="n">
-        <v>93.12002459555268</v>
+        <v>68.40055292880922</v>
       </c>
       <c r="Q2" t="n">
-        <v>117.3721168894014</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R2" t="n">
-        <v>152.3896620594977</v>
+        <v>141.5915326128755</v>
       </c>
       <c r="S2" t="n">
-        <v>184.8949060317757</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T2" t="n">
-        <v>218.936751863861</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4041441073029</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22640,49 +22640,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5308365967838</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7072230423724</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I3" t="n">
-        <v>80.08198354899218</v>
+        <v>76.91530920137211</v>
       </c>
       <c r="J3" t="n">
-        <v>77.14817768641285</v>
+        <v>68.45858123773974</v>
       </c>
       <c r="K3" t="n">
-        <v>54.88786293308858</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L3" t="n">
-        <v>28.18282082555037</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M3" t="n">
-        <v>13.82444031476771</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21.88313163507588</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>36.60328338528051</v>
+        <v>19.04014099716808</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.63117054633832</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R3" t="n">
-        <v>111.4671619854424</v>
+        <v>105.7566598115685</v>
       </c>
       <c r="S3" t="n">
-        <v>159.8159900855784</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T3" t="n">
-        <v>196.3979207416475</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6247840666579</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -22719,49 +22719,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4767994368456</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H4" t="n">
-        <v>157.9639981506375</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I4" t="n">
-        <v>141.344840945473</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J4" t="n">
-        <v>94.63631872975202</v>
+        <v>89.18474517111618</v>
       </c>
       <c r="K4" t="n">
-        <v>77.82929286268265</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L4" t="n">
-        <v>70.14201962134344</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M4" t="n">
-        <v>70.74600996413862</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N4" t="n">
-        <v>61.32535548916809</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O4" t="n">
-        <v>76.6492064337699</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P4" t="n">
-        <v>84.35979105369728</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.1518854756102</v>
+        <v>106.6950969905138</v>
       </c>
       <c r="R4" t="n">
-        <v>154.8306309999973</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S4" t="n">
-        <v>215.1636118833841</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T4" t="n">
-        <v>226.5687290657497</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0297546005226</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -22798,49 +22798,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H5" t="n">
-        <v>327.6751233740921</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I5" t="n">
-        <v>165.8152863627317</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J5" t="n">
-        <v>89.76036546048012</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K5" t="n">
-        <v>84.55776703287157</v>
+        <v>66.6704651595997</v>
       </c>
       <c r="L5" t="n">
-        <v>68.55874285947689</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M5" t="n">
-        <v>45.0952138038613</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N5" t="n">
-        <v>41.28099931752746</v>
+        <v>16.18994664413864</v>
       </c>
       <c r="O5" t="n">
-        <v>52.11368889882766</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P5" t="n">
-        <v>78.45608620404292</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q5" t="n">
-        <v>106.3601098520762</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9840597439011</v>
+        <v>137.150882842301</v>
       </c>
       <c r="S5" t="n">
-        <v>182.5711814737726</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T5" t="n">
-        <v>218.4903622093286</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -22877,22 +22877,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H6" t="n">
-        <v>105.1802814191576</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I6" t="n">
-        <v>78.20346777140993</v>
+        <v>75.61303811963009</v>
       </c>
       <c r="J6" t="n">
-        <v>71.99338681190339</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K6" t="n">
-        <v>46.07750428554137</v>
+        <v>33.92822422317469</v>
       </c>
       <c r="L6" t="n">
-        <v>16.33620635813519</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22901,25 +22901,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>26.18458021020076</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.6665433882805</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R6" t="n">
-        <v>108.0796117500979</v>
+        <v>103.4082586098946</v>
       </c>
       <c r="S6" t="n">
-        <v>158.8025487711757</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T6" t="n">
-        <v>196.1780027799153</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -22956,49 +22956,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.431057567854</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H7" t="n">
-        <v>157.5573113517852</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I7" t="n">
-        <v>139.9692581943449</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J7" t="n">
-        <v>91.40236859204865</v>
+        <v>86.94282642101277</v>
       </c>
       <c r="K7" t="n">
-        <v>72.51491935620855</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L7" t="n">
-        <v>63.34145120781625</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M7" t="n">
-        <v>63.5757640821251</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N7" t="n">
-        <v>54.32560202794129</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O7" t="n">
-        <v>70.18380116939908</v>
+        <v>61.26815738962975</v>
       </c>
       <c r="P7" t="n">
-        <v>78.82751991675428</v>
+        <v>71.19864643810425</v>
       </c>
       <c r="Q7" t="n">
-        <v>109.3216277003259</v>
+        <v>104.0397911390026</v>
       </c>
       <c r="R7" t="n">
-        <v>152.7739102360676</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S7" t="n">
-        <v>214.366455857413</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T7" t="n">
-        <v>226.3732865346039</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U7" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -23035,49 +23035,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H8" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I8" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J8" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K8" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169071</v>
       </c>
       <c r="L8" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M8" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N8" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P8" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R8" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S8" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T8" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23114,22 +23114,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H9" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I9" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J9" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K9" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L9" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23138,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R9" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S9" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T9" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -23193,49 +23193,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H10" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I10" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J10" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K10" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L10" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M10" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N10" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O10" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P10" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q10" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R10" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S10" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T10" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -23272,22 +23272,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H11" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I11" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J11" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K11" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L11" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.842533845285175</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S11" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23351,19 +23351,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H12" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I12" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J12" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K12" t="n">
-        <v>23.88873566319982</v>
+        <v>19.35442320295975</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R12" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S12" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T12" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23430,49 +23430,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H13" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I13" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J13" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K13" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074963</v>
       </c>
       <c r="L13" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M13" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N13" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552578</v>
       </c>
       <c r="O13" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P13" t="n">
-        <v>64.89457017833918</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R13" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S13" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T13" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23509,22 +23509,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H14" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I14" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J14" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K14" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L14" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S14" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23588,19 +23588,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H15" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I15" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J15" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K15" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295975</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R15" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S15" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T15" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23667,49 +23667,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H16" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I16" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J16" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K16" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074963</v>
       </c>
       <c r="L16" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M16" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N16" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552578</v>
       </c>
       <c r="O16" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P16" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q16" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R16" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S16" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T16" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23746,22 +23746,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H17" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I17" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J17" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K17" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L17" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.842533845285175</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S17" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23825,19 +23825,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H18" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I18" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J18" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K18" t="n">
-        <v>23.88873566319982</v>
+        <v>19.35442320295975</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R18" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S18" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T18" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23904,49 +23904,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H19" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I19" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J19" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K19" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074963</v>
       </c>
       <c r="L19" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M19" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N19" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552578</v>
       </c>
       <c r="O19" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P19" t="n">
-        <v>64.89457017833918</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R19" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S19" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T19" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23983,22 +23983,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H20" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I20" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J20" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K20" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L20" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S20" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24062,19 +24062,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H21" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I21" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J21" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K21" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R21" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S21" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T21" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24141,49 +24141,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H22" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I22" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J22" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K22" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L22" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M22" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N22" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O22" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P22" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R22" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S22" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T22" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24220,22 +24220,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H23" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I23" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J23" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K23" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L23" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S23" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24299,19 +24299,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H24" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I24" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J24" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K24" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R24" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S24" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T24" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24378,49 +24378,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H25" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I25" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J25" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K25" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L25" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M25" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N25" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O25" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P25" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q25" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R25" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S25" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T25" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24457,22 +24457,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H26" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I26" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J26" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K26" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L26" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S26" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24536,19 +24536,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H27" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I27" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J27" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K27" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R27" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S27" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T27" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24615,49 +24615,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H28" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I28" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J28" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K28" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L28" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M28" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N28" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O28" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P28" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q28" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R28" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S28" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T28" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24694,22 +24694,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H29" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I29" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J29" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K29" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L29" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S29" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24773,19 +24773,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H30" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I30" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J30" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K30" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R30" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S30" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T30" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24852,49 +24852,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H31" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I31" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J31" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K31" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L31" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M31" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N31" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O31" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P31" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q31" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R31" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S31" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T31" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24931,22 +24931,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H32" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I32" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J32" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K32" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L32" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S32" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25010,19 +25010,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H33" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I33" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J33" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K33" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R33" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S33" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T33" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25089,49 +25089,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H34" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I34" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J34" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K34" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L34" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M34" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N34" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O34" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P34" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q34" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R34" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S34" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T34" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25168,22 +25168,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H35" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I35" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J35" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K35" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L35" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S35" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25247,19 +25247,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H36" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I36" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J36" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K36" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R36" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S36" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T36" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25326,49 +25326,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H37" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I37" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J37" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K37" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L37" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M37" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N37" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O37" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P37" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R37" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S37" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T37" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25405,22 +25405,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H38" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I38" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J38" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K38" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L38" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S38" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25484,19 +25484,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H39" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I39" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J39" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K39" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R39" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S39" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T39" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25563,49 +25563,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H40" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I40" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J40" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K40" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L40" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M40" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N40" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O40" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P40" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R40" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S40" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T40" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25642,22 +25642,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H41" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I41" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J41" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K41" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L41" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S41" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25721,19 +25721,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H42" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I42" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J42" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K42" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295975</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R42" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S42" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T42" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25800,49 +25800,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H43" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I43" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J43" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K43" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074963</v>
       </c>
       <c r="L43" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M43" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N43" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552578</v>
       </c>
       <c r="O43" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P43" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R43" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S43" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25970,7 +25970,7 @@
         <v>56.35816695151578</v>
       </c>
       <c r="K45" t="n">
-        <v>19.35442320295975</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -26049,7 +26049,7 @@
         <v>81.59333411296618</v>
       </c>
       <c r="K46" t="n">
-        <v>56.39566249074963</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L46" t="n">
         <v>42.71435208592931</v>
@@ -26058,7 +26058,7 @@
         <v>41.82738019080209</v>
       </c>
       <c r="N46" t="n">
-        <v>33.09434609552578</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O46" t="n">
         <v>50.57329993746204</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>206295.1607907402</v>
+        <v>242741.9306427199</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>228267.5966486339</v>
+        <v>256812.0246358862</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>228267.5966486339</v>
+        <v>274211.8067315854</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>278558.3380753195</v>
+        <v>286105.7296584841</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38461.80963895158</v>
+        <v>45256.9701198292</v>
       </c>
       <c r="C2" t="n">
-        <v>42558.36547686397</v>
+        <v>47880.20798296186</v>
       </c>
       <c r="D2" t="n">
-        <v>42558.36547686396</v>
+        <v>51124.23515334644</v>
       </c>
       <c r="E2" t="n">
-        <v>51934.60540387311</v>
+        <v>53341.746207514</v>
       </c>
       <c r="F2" t="n">
-        <v>51934.60540387311</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="G2" t="n">
-        <v>51934.60540387311</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="H2" t="n">
-        <v>51934.60540387311</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="I2" t="n">
-        <v>51934.60540387312</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="J2" t="n">
-        <v>51934.60540387312</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="K2" t="n">
-        <v>51934.60540387312</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="L2" t="n">
-        <v>51934.60540387311</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="M2" t="n">
-        <v>51934.60540387311</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="N2" t="n">
-        <v>51934.60540387312</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="O2" t="n">
-        <v>51934.60540387312</v>
+        <v>53341.74620751401</v>
       </c>
       <c r="P2" t="n">
-        <v>53341.74620751401</v>
+        <v>53341.746207514</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220581.1694567361</v>
+        <v>261785.443115605</v>
       </c>
       <c r="C3" t="n">
-        <v>23098.28073304243</v>
+        <v>16012.76039071389</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19329.39694347568</v>
       </c>
       <c r="E3" t="n">
-        <v>51324.42804721942</v>
+        <v>15577.45766204447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>8688.935337042501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38617.84971036801</v>
+        <v>39550.0218227859</v>
       </c>
       <c r="C5" t="n">
-        <v>39170.82732295871</v>
+        <v>39933.37061459347</v>
       </c>
       <c r="D5" t="n">
-        <v>39170.82732295871</v>
+        <v>40425.3999991759</v>
       </c>
       <c r="E5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="F5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="G5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="H5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="I5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="J5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="K5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="L5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="M5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="N5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="O5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="P5" t="n">
         <v>7220.487712605606</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-220737.2095281525</v>
+        <v>-272312.2100230415</v>
       </c>
       <c r="C6" t="n">
-        <v>-19710.74257913717</v>
+        <v>-24061.16205744965</v>
       </c>
       <c r="D6" t="n">
-        <v>3387.538153905247</v>
+        <v>-24330.88926346524</v>
       </c>
       <c r="E6" t="n">
-        <v>-6325.71657500499</v>
+        <v>15045.06527271906</v>
       </c>
       <c r="F6" t="n">
-        <v>44998.71147221442</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="G6" t="n">
-        <v>44998.71147221442</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="H6" t="n">
-        <v>44998.71147221442</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="I6" t="n">
-        <v>44998.71147221443</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="J6" t="n">
-        <v>44998.71147221443</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="K6" t="n">
-        <v>44998.71147221443</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="L6" t="n">
-        <v>44998.71147221442</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="M6" t="n">
-        <v>44998.71147221442</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="N6" t="n">
-        <v>44998.71147221443</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="O6" t="n">
-        <v>44998.71147221443</v>
+        <v>30622.52293476353</v>
       </c>
       <c r="P6" t="n">
-        <v>37432.3231578659</v>
+        <v>30622.52293476352</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228.9105371728443</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="C3" t="n">
-        <v>254.2764827045282</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="D3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="E3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="F3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="G3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="H3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="I3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="J3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="K3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="L3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="M3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="N3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="O3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="P3" t="n">
         <v>331.2150326883306</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228.9105371728443</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="C3" t="n">
-        <v>25.36594553168391</v>
+        <v>17.58480696365029</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22.57015525607437</v>
       </c>
       <c r="E3" t="n">
-        <v>63.88378938990695</v>
+        <v>19.389344652739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>13.05476059389537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9202433655189716</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H2" t="n">
-        <v>9.42444236712117</v>
+        <v>11.18491586235878</v>
       </c>
       <c r="I2" t="n">
-        <v>35.47768234917019</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J2" t="n">
-        <v>78.10450534421588</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K2" t="n">
-        <v>117.058407006634</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L2" t="n">
-        <v>145.2213049041352</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M2" t="n">
-        <v>161.5866828556833</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N2" t="n">
-        <v>164.201324317964</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O2" t="n">
-        <v>155.0506543520847</v>
+        <v>184.0139135851583</v>
       </c>
       <c r="P2" t="n">
-        <v>132.3321462658351</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q2" t="n">
-        <v>99.3759307381869</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R2" t="n">
-        <v>57.80623730928114</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S2" t="n">
-        <v>20.97004569176358</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T2" t="n">
-        <v>4.0283653325593</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0736194692415177</v>
+        <v>0.08737148970962544</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4923736082585709</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H3" t="n">
-        <v>4.755292479760408</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I3" t="n">
-        <v>16.95233695100782</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J3" t="n">
-        <v>46.51850831358718</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K3" t="n">
-        <v>79.50754006691143</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L3" t="n">
-        <v>106.907699459827</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M3" t="n">
-        <v>124.7562427592001</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>117.1482066982574</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>94.02176384369149</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q3" t="n">
-        <v>62.85105918753266</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R3" t="n">
-        <v>30.57035437942251</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S3" t="n">
-        <v>9.145623820065993</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T3" t="n">
-        <v>1.984611166621169</v>
+        <v>2.355333934196052</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03239300054332704</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4127894932625061</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H4" t="n">
-        <v>3.670073858279375</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I4" t="n">
-        <v>12.41370585193064</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J4" t="n">
-        <v>29.18421717365919</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K4" t="n">
-        <v>47.95863385358934</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L4" t="n">
-        <v>61.37053975286388</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M4" t="n">
-        <v>64.70662938477629</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N4" t="n">
-        <v>63.16805036443428</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O4" t="n">
-        <v>58.3459185567768</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P4" t="n">
-        <v>49.92501289422163</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.5654911130995</v>
+        <v>41.02227959819589</v>
       </c>
       <c r="R4" t="n">
-        <v>18.56051666978504</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S4" t="n">
-        <v>7.1937950780384</v>
+        <v>8.537586580147812</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76373692575798</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02251579054159127</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0222170158976</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H5" t="n">
-        <v>10.4687800140613</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I5" t="n">
-        <v>39.40902150539227</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J5" t="n">
-        <v>86.75939145303902</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K5" t="n">
-        <v>130.0298377359845</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L5" t="n">
-        <v>161.3135117362607</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M5" t="n">
-        <v>179.4923635927296</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N5" t="n">
-        <v>182.3967376891487</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O5" t="n">
-        <v>172.2320672373169</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P5" t="n">
-        <v>146.9960846573449</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.387937775512</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R5" t="n">
-        <v>64.21183962487768</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S5" t="n">
-        <v>23.29377024976659</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T5" t="n">
-        <v>4.474754987091746</v>
+        <v>5.09031595876316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.081777361271808</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H6" t="n">
-        <v>5.282234102975201</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I6" t="n">
-        <v>18.83085272859006</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J6" t="n">
-        <v>51.67329918809664</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K6" t="n">
-        <v>88.31789871445865</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L6" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
         <v>138.5806830739679</v>
@@ -31381,25 +31381,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>104.4404670187712</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q6" t="n">
-        <v>69.81568634559048</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R6" t="n">
-        <v>33.95790461476701</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S6" t="n">
-        <v>10.15906513446865</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T6" t="n">
-        <v>2.204529128353409</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4585313622540672</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H7" t="n">
-        <v>4.076760657131619</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I7" t="n">
-        <v>13.78928860305868</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J7" t="n">
-        <v>32.41816731136255</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K7" t="n">
-        <v>53.27300736006343</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L7" t="n">
-        <v>68.17110816639106</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M7" t="n">
-        <v>71.87687526678981</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N7" t="n">
-        <v>70.16780382566108</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O7" t="n">
-        <v>64.81132382114764</v>
+        <v>73.72696760091696</v>
       </c>
       <c r="P7" t="n">
-        <v>55.45728403116462</v>
+        <v>63.08615750981466</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.39574888838376</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R7" t="n">
-        <v>20.61723743371469</v>
+        <v>23.45340762504085</v>
       </c>
       <c r="S7" t="n">
-        <v>7.990951104009515</v>
+        <v>9.090210759644821</v>
       </c>
       <c r="T7" t="n">
-        <v>1.959179456903741</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0250108015774946</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H8" t="n">
-        <v>10.4687800140613</v>
+        <v>12.83812996017889</v>
       </c>
       <c r="I8" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J8" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K8" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671653</v>
       </c>
       <c r="L8" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M8" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N8" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O8" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P8" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R8" t="n">
-        <v>64.21183962487768</v>
+        <v>78.74460452689742</v>
       </c>
       <c r="S8" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T8" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U8" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.6707194044539139</v>
       </c>
       <c r="H9" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I9" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J9" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K9" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L9" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
         <v>138.5806830739679</v>
@@ -31618,25 +31618,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R9" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S9" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T9" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H10" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619816</v>
       </c>
       <c r="I10" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J10" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K10" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L10" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M10" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N10" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O10" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P10" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R10" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S10" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T10" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104183</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H11" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329393</v>
       </c>
       <c r="I11" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524369</v>
       </c>
       <c r="J11" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K11" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L11" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M11" t="n">
         <v>224.5875773965909</v>
@@ -31776,25 +31776,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P11" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R11" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S11" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T11" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454942</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H12" t="n">
-        <v>6.609329425961758</v>
+        <v>6.880523603582114</v>
       </c>
       <c r="I12" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965468</v>
       </c>
       <c r="J12" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K12" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L12" t="n">
         <v>135.0905202853774</v>
@@ -31861,19 +31861,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R12" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S12" t="n">
-        <v>12.71140332377294</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T12" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0468700517955185</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5737316382030797</v>
+        <v>0.597273009765842</v>
       </c>
       <c r="H13" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I13" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J13" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044503</v>
       </c>
       <c r="K13" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552235</v>
       </c>
       <c r="L13" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M13" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N13" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807659</v>
       </c>
       <c r="O13" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P13" t="n">
-        <v>69.39023376957972</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R13" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S13" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T13" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0312944529928953</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H14" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329393</v>
       </c>
       <c r="I14" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524369</v>
       </c>
       <c r="J14" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K14" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L14" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M14" t="n">
         <v>224.5875773965909</v>
@@ -32013,25 +32013,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P14" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R14" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S14" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T14" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454942</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H15" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582114</v>
       </c>
       <c r="I15" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965468</v>
       </c>
       <c r="J15" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K15" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L15" t="n">
         <v>135.0905202853774</v>
@@ -32098,19 +32098,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R15" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S15" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T15" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0468700517955185</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.597273009765842</v>
       </c>
       <c r="H16" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I16" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J16" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044503</v>
       </c>
       <c r="K16" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552235</v>
       </c>
       <c r="L16" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M16" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N16" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807659</v>
       </c>
       <c r="O16" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P16" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R16" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S16" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T16" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H17" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329393</v>
       </c>
       <c r="I17" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524369</v>
       </c>
       <c r="J17" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K17" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L17" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M17" t="n">
         <v>224.5875773965909</v>
@@ -32250,25 +32250,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O17" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P17" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R17" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S17" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T17" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454942</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H18" t="n">
-        <v>6.609329425961758</v>
+        <v>6.880523603582114</v>
       </c>
       <c r="I18" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965468</v>
       </c>
       <c r="J18" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K18" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L18" t="n">
         <v>135.0905202853774</v>
@@ -32335,19 +32335,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R18" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S18" t="n">
-        <v>12.71140332377294</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T18" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0468700517955185</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5737316382030797</v>
+        <v>0.597273009765842</v>
       </c>
       <c r="H19" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I19" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J19" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044503</v>
       </c>
       <c r="K19" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552235</v>
       </c>
       <c r="L19" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M19" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N19" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807659</v>
       </c>
       <c r="O19" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P19" t="n">
-        <v>69.39023376957972</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R19" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S19" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T19" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0312944529928953</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H20" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I20" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J20" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K20" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L20" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M20" t="n">
         <v>224.5875773965909</v>
@@ -32487,25 +32487,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O20" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P20" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R20" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S20" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T20" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H21" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I21" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K21" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L21" t="n">
         <v>135.0905202853774</v>
@@ -32572,19 +32572,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R21" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S21" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T21" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H22" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I22" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J22" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K22" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L22" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M22" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N22" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O22" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P22" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R22" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S22" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T22" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H23" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I23" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J23" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K23" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L23" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M23" t="n">
         <v>224.5875773965909</v>
@@ -32724,25 +32724,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O23" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P23" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R23" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S23" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T23" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H24" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I24" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K24" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L24" t="n">
         <v>135.0905202853774</v>
@@ -32809,19 +32809,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R24" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S24" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T24" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H25" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I25" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J25" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K25" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L25" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M25" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N25" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O25" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P25" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R25" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S25" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T25" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H26" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I26" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J26" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K26" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L26" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M26" t="n">
         <v>224.5875773965909</v>
@@ -32961,25 +32961,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O26" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P26" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R26" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S26" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T26" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H27" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I27" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K27" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L27" t="n">
         <v>135.0905202853774</v>
@@ -33046,19 +33046,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R27" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S27" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T27" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H28" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I28" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J28" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K28" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L28" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M28" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N28" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O28" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P28" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R28" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S28" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T28" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H29" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I29" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J29" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K29" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L29" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M29" t="n">
         <v>224.5875773965909</v>
@@ -33198,25 +33198,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O29" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P29" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R29" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S29" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T29" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H30" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I30" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K30" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L30" t="n">
         <v>135.0905202853774</v>
@@ -33283,19 +33283,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R30" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S30" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T30" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H31" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I31" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J31" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K31" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L31" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M31" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N31" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O31" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P31" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R31" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S31" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T31" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H32" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I32" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J32" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K32" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L32" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M32" t="n">
         <v>224.5875773965909</v>
@@ -33435,25 +33435,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O32" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P32" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R32" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S32" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T32" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H33" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I33" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K33" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L33" t="n">
         <v>135.0905202853774</v>
@@ -33520,19 +33520,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R33" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S33" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T33" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H34" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I34" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J34" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K34" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L34" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M34" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N34" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O34" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P34" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R34" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S34" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T34" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H35" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I35" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J35" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K35" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L35" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M35" t="n">
         <v>224.5875773965909</v>
@@ -33672,25 +33672,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O35" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P35" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R35" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S35" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T35" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H36" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I36" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K36" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L36" t="n">
         <v>135.0905202853774</v>
@@ -33757,19 +33757,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R36" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S36" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T36" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H37" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I37" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J37" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K37" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L37" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M37" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N37" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O37" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P37" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R37" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S37" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T37" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H38" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I38" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J38" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K38" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L38" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M38" t="n">
         <v>224.5875773965909</v>
@@ -33909,25 +33909,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O38" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P38" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R38" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S38" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T38" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H39" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I39" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K39" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L39" t="n">
         <v>135.0905202853774</v>
@@ -33994,19 +33994,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R39" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S39" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T39" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H40" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I40" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J40" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K40" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L40" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M40" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N40" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O40" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P40" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R40" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S40" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T40" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H41" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329393</v>
       </c>
       <c r="I41" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524369</v>
       </c>
       <c r="J41" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K41" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L41" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M41" t="n">
         <v>224.5875773965909</v>
@@ -34146,25 +34146,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O41" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P41" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R41" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S41" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T41" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454942</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H42" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582114</v>
       </c>
       <c r="I42" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965468</v>
       </c>
       <c r="J42" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K42" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L42" t="n">
         <v>135.0905202853774</v>
@@ -34231,19 +34231,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R42" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S42" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T42" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0468700517955185</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.597273009765842</v>
       </c>
       <c r="H43" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I43" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J43" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044503</v>
       </c>
       <c r="K43" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552235</v>
       </c>
       <c r="L43" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M43" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N43" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807659</v>
       </c>
       <c r="O43" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P43" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R43" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S43" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T43" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,10 +34362,10 @@
         <v>1.331517719350072</v>
       </c>
       <c r="H44" t="n">
-        <v>13.63640584329393</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I44" t="n">
-        <v>51.33333687524369</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J44" t="n">
         <v>113.0109020326882</v>
@@ -34398,7 +34398,7 @@
         <v>30.34196002968979</v>
       </c>
       <c r="T44" t="n">
-        <v>5.828718816454942</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U44" t="n">
         <v>0.1065214175480057</v>
@@ -34441,10 +34441,10 @@
         <v>0.7124247872918809</v>
       </c>
       <c r="H45" t="n">
-        <v>6.880523603582114</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I45" t="n">
-        <v>24.52866043965468</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J45" t="n">
         <v>67.30851904848424</v>
@@ -34480,7 +34480,7 @@
         <v>2.871571840005431</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0468700517955185</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,7 +34517,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.597273009765842</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H46" t="n">
         <v>5.310300032281762</v>
@@ -34526,10 +34526,10 @@
         <v>17.96162833004914</v>
       </c>
       <c r="J46" t="n">
-        <v>42.22720179044503</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K46" t="n">
-        <v>69.39226422552235</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L46" t="n">
         <v>88.79820728827801</v>
@@ -34538,7 +34538,7 @@
         <v>93.62525915811283</v>
       </c>
       <c r="N46" t="n">
-        <v>91.39905975807659</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O46" t="n">
         <v>84.42182505308467</v>
